--- a/CumulativeTestsByTypeByCounty/2021-01-29.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-01-29.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>44318</v>
+        <v>44424</v>
       </c>
       <c r="C2" s="4">
         <v>1364</v>
       </c>
       <c r="D2" s="4">
-        <v>4283</v>
+        <v>4328</v>
       </c>
       <c r="E2" s="4">
-        <v>49965</v>
+        <v>50116</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3703</v>
+        <v>3718</v>
       </c>
       <c r="C3" s="4">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="4">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="E3" s="4">
-        <v>5527</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>44248</v>
+        <v>44846</v>
       </c>
       <c r="C4" s="4">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="D4" s="4">
-        <v>11771</v>
+        <v>11836</v>
       </c>
       <c r="E4" s="4">
-        <v>57362</v>
+        <v>58030</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5601</v>
+        <v>5628</v>
       </c>
       <c r="C5" s="4">
-        <v>1869</v>
+        <v>1878</v>
       </c>
       <c r="D5" s="4">
-        <v>3553</v>
+        <v>3560</v>
       </c>
       <c r="E5" s="4">
-        <v>11023</v>
+        <v>11066</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="C6" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E6" s="4">
-        <v>2998</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C7" s="4">
         <v>111</v>
@@ -1165,7 +1165,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="4">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>33299</v>
+        <v>33820</v>
       </c>
       <c r="C8" s="4">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D8" s="4">
-        <v>2877</v>
+        <v>2896</v>
       </c>
       <c r="E8" s="4">
-        <v>37078</v>
+        <v>37621</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>13916</v>
+        <v>14054</v>
       </c>
       <c r="C9" s="4">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D9" s="4">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E9" s="4">
-        <v>14712</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>5917</v>
+        <v>5953</v>
       </c>
       <c r="C11" s="4">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D11" s="4">
-        <v>2083</v>
+        <v>2105</v>
       </c>
       <c r="E11" s="4">
-        <v>8357</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>39388</v>
+        <v>39593</v>
       </c>
       <c r="C12" s="4">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D12" s="4">
-        <v>10265</v>
+        <v>10270</v>
       </c>
       <c r="E12" s="4">
-        <v>50534</v>
+        <v>50746</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
       </c>
       <c r="D13" s="4">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E13" s="4">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>25971</v>
+        <v>26081</v>
       </c>
       <c r="C14" s="4">
-        <v>4541</v>
+        <v>4560</v>
       </c>
       <c r="D14" s="4">
-        <v>4419</v>
+        <v>4461</v>
       </c>
       <c r="E14" s="4">
-        <v>34931</v>
+        <v>35102</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>192839</v>
+        <v>193887</v>
       </c>
       <c r="C15" s="4">
-        <v>12085</v>
+        <v>12109</v>
       </c>
       <c r="D15" s="4">
-        <v>6389</v>
+        <v>6411</v>
       </c>
       <c r="E15" s="4">
-        <v>211313</v>
+        <v>212407</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1252175</v>
+        <v>1272292</v>
       </c>
       <c r="C16" s="4">
-        <v>38771</v>
+        <v>38890</v>
       </c>
       <c r="D16" s="4">
-        <v>114944</v>
+        <v>115850</v>
       </c>
       <c r="E16" s="4">
-        <v>1405890</v>
+        <v>1427032</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4456</v>
+        <v>4501</v>
       </c>
       <c r="C17" s="4">
         <v>194</v>
       </c>
       <c r="D17" s="4">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E17" s="4">
-        <v>5007</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,16 +1343,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7517</v>
+        <v>7527</v>
       </c>
       <c r="C19" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D19" s="4">
-        <v>3499</v>
+        <v>3505</v>
       </c>
       <c r="E19" s="4">
-        <v>11462</v>
+        <v>11479</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>50324</v>
+        <v>50455</v>
       </c>
       <c r="C20" s="4">
-        <v>9483</v>
+        <v>9489</v>
       </c>
       <c r="D20" s="4">
-        <v>4387</v>
+        <v>4470</v>
       </c>
       <c r="E20" s="4">
-        <v>64194</v>
+        <v>64414</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>242310</v>
+        <v>243738</v>
       </c>
       <c r="C21" s="4">
-        <v>7591</v>
+        <v>7651</v>
       </c>
       <c r="D21" s="4">
-        <v>16890</v>
+        <v>17082</v>
       </c>
       <c r="E21" s="4">
-        <v>266791</v>
+        <v>268471</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>185826</v>
+        <v>187577</v>
       </c>
       <c r="C22" s="4">
-        <v>4969</v>
+        <v>4985</v>
       </c>
       <c r="D22" s="4">
-        <v>8777</v>
+        <v>8844</v>
       </c>
       <c r="E22" s="4">
-        <v>199572</v>
+        <v>201406</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8015</v>
+        <v>8018</v>
       </c>
       <c r="C23" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E23" s="4">
-        <v>8330</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11611</v>
+        <v>11631</v>
       </c>
       <c r="C25" s="4">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="D25" s="4">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E25" s="4">
-        <v>13617</v>
+        <v>13642</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>13748</v>
+        <v>13813</v>
       </c>
       <c r="C26" s="4">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D26" s="4">
-        <v>13289</v>
+        <v>13372</v>
       </c>
       <c r="E26" s="4">
-        <v>27705</v>
+        <v>27855</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>10919</v>
+        <v>11013</v>
       </c>
       <c r="C27" s="4">
         <v>215</v>
       </c>
       <c r="D27" s="4">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E27" s="4">
-        <v>11829</v>
+        <v>11926</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>25684</v>
+        <v>25998</v>
       </c>
       <c r="C28" s="4">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D28" s="4">
-        <v>1715</v>
+        <v>1724</v>
       </c>
       <c r="E28" s="4">
-        <v>28361</v>
+        <v>28685</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>25091</v>
+        <v>25333</v>
       </c>
       <c r="C29" s="4">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="D29" s="4">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="E29" s="4">
-        <v>29755</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>10967</v>
+        <v>10994</v>
       </c>
       <c r="C30" s="4">
         <v>242</v>
       </c>
       <c r="D30" s="4">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="E30" s="4">
-        <v>13548</v>
+        <v>13576</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4130</v>
+        <v>4154</v>
       </c>
       <c r="C31" s="4">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D31" s="4">
-        <v>3274</v>
+        <v>3294</v>
       </c>
       <c r="E31" s="4">
-        <v>7608</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>195953</v>
+        <v>196990</v>
       </c>
       <c r="C32" s="4">
-        <v>6785</v>
+        <v>6799</v>
       </c>
       <c r="D32" s="4">
-        <v>23564</v>
+        <v>23776</v>
       </c>
       <c r="E32" s="4">
-        <v>226302</v>
+        <v>227565</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4718</v>
+        <v>4736</v>
       </c>
       <c r="C33" s="4">
         <v>313</v>
       </c>
       <c r="D33" s="4">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="E33" s="4">
-        <v>5998</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="C34" s="4">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D34" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E34" s="4">
-        <v>2049</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10257</v>
+        <v>10289</v>
       </c>
       <c r="C35" s="4">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="D35" s="4">
-        <v>1920</v>
+        <v>1935</v>
       </c>
       <c r="E35" s="4">
-        <v>15177</v>
+        <v>15227</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3300</v>
+        <v>3375</v>
       </c>
       <c r="C36" s="4">
         <v>35</v>
@@ -1658,7 +1658,7 @@
         <v>1395</v>
       </c>
       <c r="E36" s="4">
-        <v>4730</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6499</v>
+        <v>6527</v>
       </c>
       <c r="C37" s="4">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D37" s="4">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="E37" s="4">
-        <v>7723</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>18684</v>
+        <v>18808</v>
       </c>
       <c r="C38" s="4">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D38" s="4">
-        <v>4533</v>
+        <v>4670</v>
       </c>
       <c r="E38" s="4">
-        <v>23903</v>
+        <v>24166</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2404</v>
+        <v>2425</v>
       </c>
       <c r="C39" s="4">
         <v>123</v>
       </c>
       <c r="D39" s="4">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="E39" s="4">
-        <v>5957</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3517</v>
+        <v>3527</v>
       </c>
       <c r="C40" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D40" s="4">
         <v>749</v>
       </c>
       <c r="E40" s="4">
-        <v>4365</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C41" s="4">
         <v>13</v>
       </c>
       <c r="D41" s="4">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E41" s="4">
-        <v>905</v>
+        <v>913</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="C42" s="4">
         <v>18</v>
       </c>
       <c r="D42" s="4">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="E42" s="4">
-        <v>2921</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2592</v>
+        <v>2605</v>
       </c>
       <c r="C43" s="4">
         <v>70</v>
       </c>
       <c r="D43" s="4">
-        <v>2061</v>
+        <v>2070</v>
       </c>
       <c r="E43" s="4">
-        <v>4723</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>693476</v>
+        <v>697762</v>
       </c>
       <c r="C44" s="4">
-        <v>71144</v>
+        <v>71310</v>
       </c>
       <c r="D44" s="4">
-        <v>53832</v>
+        <v>54361</v>
       </c>
       <c r="E44" s="4">
-        <v>818452</v>
+        <v>823433</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
       </c>
       <c r="D45" s="4">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="E45" s="4">
-        <v>1820</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>9717</v>
+        <v>9782</v>
       </c>
       <c r="C46" s="4">
         <v>239</v>
       </c>
       <c r="D46" s="4">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="E46" s="4">
-        <v>12320</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>72938</v>
+        <v>73482</v>
       </c>
       <c r="C47" s="4">
-        <v>5995</v>
+        <v>6006</v>
       </c>
       <c r="D47" s="4">
-        <v>11161</v>
+        <v>11239</v>
       </c>
       <c r="E47" s="4">
-        <v>90094</v>
+        <v>90727</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5635</v>
+        <v>5645</v>
       </c>
       <c r="C48" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D48" s="4">
-        <v>1720</v>
+        <v>1736</v>
       </c>
       <c r="E48" s="4">
-        <v>7627</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="E49" s="4">
-        <v>2241</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>19723</v>
+        <v>19891</v>
       </c>
       <c r="C50" s="4">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D50" s="4">
-        <v>3232</v>
+        <v>3238</v>
       </c>
       <c r="E50" s="4">
-        <v>24102</v>
+        <v>24277</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>69375</v>
+        <v>69587</v>
       </c>
       <c r="C51" s="4">
         <v>1990</v>
       </c>
       <c r="D51" s="4">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E51" s="4">
-        <v>73260</v>
+        <v>73473</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C52" s="4">
         <v>13</v>
@@ -1930,7 +1930,7 @@
         <v>568</v>
       </c>
       <c r="E52" s="4">
-        <v>1159</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3319</v>
+        <v>3373</v>
       </c>
       <c r="C53" s="4">
         <v>57</v>
       </c>
       <c r="D53" s="4">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E53" s="4">
-        <v>4235</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C54" s="4">
         <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="E54" s="4">
-        <v>2331</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2149</v>
+        <v>2155</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1216</v>
+        <v>1232</v>
       </c>
       <c r="E55" s="4">
-        <v>3382</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="C56" s="4">
         <v>11</v>
@@ -1998,7 +1998,7 @@
         <v>31</v>
       </c>
       <c r="E56" s="4">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C57" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E57" s="4">
-        <v>1978</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1777879</v>
+        <v>1787465</v>
       </c>
       <c r="C58" s="4">
-        <v>116784</v>
+        <v>117074</v>
       </c>
       <c r="D58" s="4">
-        <v>115717</v>
+        <v>116571</v>
       </c>
       <c r="E58" s="4">
-        <v>2010380</v>
+        <v>2021110</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6727</v>
+        <v>6731</v>
       </c>
       <c r="C59" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D59" s="4">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="E59" s="4">
-        <v>8738</v>
+        <v>8751</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6736</v>
+        <v>6793</v>
       </c>
       <c r="C60" s="4">
         <v>155</v>
       </c>
       <c r="D60" s="4">
-        <v>1750</v>
+        <v>1762</v>
       </c>
       <c r="E60" s="4">
-        <v>8641</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4039</v>
+        <v>4047</v>
       </c>
       <c r="C61" s="4">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D61" s="4">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="E61" s="4">
-        <v>5848</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1398</v>
+        <v>1417</v>
       </c>
       <c r="C62" s="4">
         <v>197</v>
       </c>
       <c r="D62" s="4">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E62" s="4">
-        <v>2406</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>424557</v>
+        <v>427344</v>
       </c>
       <c r="C63" s="4">
-        <v>52001</v>
+        <v>52182</v>
       </c>
       <c r="D63" s="4">
-        <v>45654</v>
+        <v>46109</v>
       </c>
       <c r="E63" s="4">
-        <v>522212</v>
+        <v>525635</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C64" s="4">
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E64" s="4">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>7519</v>
+        <v>7593</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E65" s="4">
-        <v>7981</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="C66" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="4">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E66" s="4">
-        <v>1722</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>14252</v>
+        <v>14276</v>
       </c>
       <c r="C67" s="4">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="D67" s="4">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E67" s="4">
-        <v>17066</v>
+        <v>17100</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3683</v>
+        <v>3695</v>
       </c>
       <c r="C68" s="4">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D68" s="4">
-        <v>2481</v>
+        <v>2491</v>
       </c>
       <c r="E68" s="4">
-        <v>6461</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>50580</v>
+        <v>50702</v>
       </c>
       <c r="C69" s="4">
-        <v>3847</v>
+        <v>3882</v>
       </c>
       <c r="D69" s="4">
-        <v>10270</v>
+        <v>10399</v>
       </c>
       <c r="E69" s="4">
-        <v>64697</v>
+        <v>64983</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E70" s="4">
-        <v>1307</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>687191</v>
+        <v>691223</v>
       </c>
       <c r="C71" s="4">
-        <v>14945</v>
+        <v>14992</v>
       </c>
       <c r="D71" s="4">
-        <v>86931</v>
+        <v>87209</v>
       </c>
       <c r="E71" s="4">
-        <v>789067</v>
+        <v>793424</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>127135</v>
+        <v>128129</v>
       </c>
       <c r="C72" s="4">
-        <v>6333</v>
+        <v>6349</v>
       </c>
       <c r="D72" s="4">
-        <v>5679</v>
+        <v>5737</v>
       </c>
       <c r="E72" s="4">
-        <v>139147</v>
+        <v>140215</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>14239</v>
+        <v>14284</v>
       </c>
       <c r="C73" s="4">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="D73" s="4">
-        <v>3586</v>
+        <v>3607</v>
       </c>
       <c r="E73" s="4">
-        <v>18818</v>
+        <v>18887</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10732</v>
+        <v>10777</v>
       </c>
       <c r="C74" s="4">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D74" s="4">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="E74" s="4">
-        <v>12259</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>19840</v>
+        <v>20018</v>
       </c>
       <c r="C75" s="4">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D75" s="4">
-        <v>2593</v>
+        <v>2610</v>
       </c>
       <c r="E75" s="4">
-        <v>23116</v>
+        <v>23312</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11377</v>
+        <v>11437</v>
       </c>
       <c r="C76" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D76" s="4">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E76" s="4">
-        <v>12866</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C77" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E77" s="4">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="C78" s="4">
         <v>107</v>
       </c>
       <c r="D78" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E78" s="4">
-        <v>2291</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>487480</v>
+        <v>491532</v>
       </c>
       <c r="C80" s="4">
-        <v>18654</v>
+        <v>18746</v>
       </c>
       <c r="D80" s="4">
-        <v>16849</v>
+        <v>17056</v>
       </c>
       <c r="E80" s="4">
-        <v>522983</v>
+        <v>527334</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3556</v>
+        <v>3572</v>
       </c>
       <c r="C81" s="4">
         <v>412</v>
       </c>
       <c r="D81" s="4">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="E81" s="4">
-        <v>4415</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11419</v>
+        <v>11524</v>
       </c>
       <c r="C82" s="4">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D82" s="4">
-        <v>2447</v>
+        <v>2460</v>
       </c>
       <c r="E82" s="4">
-        <v>14469</v>
+        <v>14589</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>12249</v>
+        <v>12339</v>
       </c>
       <c r="C83" s="4">
         <v>374</v>
       </c>
       <c r="D83" s="4">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="E83" s="4">
-        <v>12949</v>
+        <v>13048</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2902</v>
+        <v>2911</v>
       </c>
       <c r="C84" s="4">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D84" s="4">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E84" s="4">
-        <v>3692</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>260052</v>
+        <v>261118</v>
       </c>
       <c r="C85" s="4">
-        <v>7888</v>
+        <v>7928</v>
       </c>
       <c r="D85" s="4">
-        <v>13407</v>
+        <v>13477</v>
       </c>
       <c r="E85" s="4">
-        <v>281347</v>
+        <v>282523</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1321</v>
+        <v>1337</v>
       </c>
       <c r="C86" s="4">
         <v>43</v>
       </c>
       <c r="D86" s="4">
-        <v>1126</v>
+        <v>1135</v>
       </c>
       <c r="E86" s="4">
-        <v>2490</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13759</v>
+        <v>13780</v>
       </c>
       <c r="C87" s="4">
         <v>300</v>
       </c>
       <c r="D87" s="4">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="E87" s="4">
-        <v>16208</v>
+        <v>16232</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2539,10 +2539,10 @@
         <v>25</v>
       </c>
       <c r="D88" s="4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E88" s="4">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2095</v>
+        <v>2110</v>
       </c>
       <c r="C89" s="4">
         <v>141</v>
       </c>
       <c r="D89" s="4">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="E89" s="4">
-        <v>3283</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10688</v>
+        <v>10768</v>
       </c>
       <c r="C90" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D90" s="4">
-        <v>1982</v>
+        <v>1995</v>
       </c>
       <c r="E90" s="4">
-        <v>12937</v>
+        <v>13031</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6526</v>
+        <v>6548</v>
       </c>
       <c r="C91" s="4">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D91" s="4">
-        <v>1228</v>
+        <v>1251</v>
       </c>
       <c r="E91" s="4">
-        <v>7996</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>79976</v>
+        <v>80343</v>
       </c>
       <c r="C92" s="4">
-        <v>3245</v>
+        <v>3258</v>
       </c>
       <c r="D92" s="4">
-        <v>7445</v>
+        <v>7542</v>
       </c>
       <c r="E92" s="4">
-        <v>90666</v>
+        <v>91143</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>38966</v>
+        <v>39156</v>
       </c>
       <c r="C93" s="4">
-        <v>8377</v>
+        <v>8418</v>
       </c>
       <c r="D93" s="4">
-        <v>9468</v>
+        <v>9651</v>
       </c>
       <c r="E93" s="4">
-        <v>56811</v>
+        <v>57225</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>20218</v>
+        <v>20424</v>
       </c>
       <c r="C94" s="4">
         <v>407</v>
       </c>
       <c r="D94" s="4">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="E94" s="4">
-        <v>21614</v>
+        <v>21833</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>56032</v>
+        <v>56625</v>
       </c>
       <c r="C95" s="4">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="D95" s="4">
-        <v>9301</v>
+        <v>9390</v>
       </c>
       <c r="E95" s="4">
-        <v>68067</v>
+        <v>68752</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>10799</v>
+        <v>10845</v>
       </c>
       <c r="C96" s="4">
         <v>234</v>
       </c>
       <c r="D96" s="4">
-        <v>1533</v>
+        <v>1549</v>
       </c>
       <c r="E96" s="4">
-        <v>12566</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="C97" s="4">
         <v>21</v>
       </c>
       <c r="D97" s="4">
-        <v>1660</v>
+        <v>1673</v>
       </c>
       <c r="E97" s="4">
-        <v>2690</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4004</v>
+        <v>4049</v>
       </c>
       <c r="C98" s="4">
         <v>278</v>
       </c>
       <c r="D98" s="4">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="E98" s="4">
-        <v>4944</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="C99" s="4">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D99" s="4">
-        <v>1388</v>
+        <v>1410</v>
       </c>
       <c r="E99" s="4">
-        <v>2806</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C100" s="4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D100" s="4">
         <v>738</v>
       </c>
       <c r="E100" s="4">
-        <v>2047</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>15564</v>
+        <v>15627</v>
       </c>
       <c r="C101" s="4">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="D101" s="4">
-        <v>3631</v>
+        <v>3680</v>
       </c>
       <c r="E101" s="4">
-        <v>22169</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>2980139</v>
+        <v>3001823</v>
       </c>
       <c r="C102" s="4">
-        <v>113902</v>
+        <v>114518</v>
       </c>
       <c r="D102" s="4">
-        <v>158725</v>
+        <v>160247</v>
       </c>
       <c r="E102" s="4">
-        <v>3252766</v>
+        <v>3276588</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>48642</v>
+        <v>49003</v>
       </c>
       <c r="C103" s="4">
-        <v>6043</v>
+        <v>6085</v>
       </c>
       <c r="D103" s="4">
-        <v>5352</v>
+        <v>5444</v>
       </c>
       <c r="E103" s="4">
-        <v>60037</v>
+        <v>60532</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2811,10 +2811,10 @@
         <v>13</v>
       </c>
       <c r="D104" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E104" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C105" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D105" s="4">
-        <v>1084</v>
+        <v>1096</v>
       </c>
       <c r="E105" s="4">
-        <v>2101</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>172369</v>
+        <v>174703</v>
       </c>
       <c r="C106" s="4">
-        <v>9424</v>
+        <v>9432</v>
       </c>
       <c r="D106" s="4">
-        <v>7336</v>
+        <v>7362</v>
       </c>
       <c r="E106" s="4">
-        <v>189129</v>
+        <v>191497</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,13 +2859,13 @@
         <v>923</v>
       </c>
       <c r="C107" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D107" s="4">
         <v>42</v>
       </c>
       <c r="E107" s="4">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>21889</v>
+        <v>21930</v>
       </c>
       <c r="C108" s="4">
-        <v>1940</v>
+        <v>1953</v>
       </c>
       <c r="D108" s="4">
-        <v>4578</v>
+        <v>4607</v>
       </c>
       <c r="E108" s="4">
-        <v>28407</v>
+        <v>28490</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>352463</v>
+        <v>354755</v>
       </c>
       <c r="C109" s="4">
-        <v>12985</v>
+        <v>13045</v>
       </c>
       <c r="D109" s="4">
-        <v>55906</v>
+        <v>55979</v>
       </c>
       <c r="E109" s="4">
-        <v>421354</v>
+        <v>423779</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>27960</v>
+        <v>28003</v>
       </c>
       <c r="C110" s="4">
         <v>930</v>
       </c>
       <c r="D110" s="4">
-        <v>3749</v>
+        <v>3754</v>
       </c>
       <c r="E110" s="4">
-        <v>32639</v>
+        <v>32687</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6600</v>
+        <v>6621</v>
       </c>
       <c r="C111" s="4">
         <v>68</v>
       </c>
       <c r="D111" s="4">
-        <v>2300</v>
+        <v>2313</v>
       </c>
       <c r="E111" s="4">
-        <v>8968</v>
+        <v>9002</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>28644</v>
+        <v>28747</v>
       </c>
       <c r="C112" s="4">
-        <v>2126</v>
+        <v>2134</v>
       </c>
       <c r="D112" s="4">
-        <v>12622</v>
+        <v>12815</v>
       </c>
       <c r="E112" s="4">
-        <v>43392</v>
+        <v>43696</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>13789</v>
+        <v>13916</v>
       </c>
       <c r="C113" s="4">
         <v>1769</v>
       </c>
       <c r="D113" s="4">
-        <v>1692</v>
+        <v>1728</v>
       </c>
       <c r="E113" s="4">
-        <v>17250</v>
+        <v>17413</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>12984</v>
+        <v>13044</v>
       </c>
       <c r="C114" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D114" s="4">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="E114" s="4">
-        <v>14776</v>
+        <v>14849</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>12769</v>
+        <v>12949</v>
       </c>
       <c r="C115" s="4">
         <v>396</v>
       </c>
       <c r="D115" s="4">
-        <v>2745</v>
+        <v>2789</v>
       </c>
       <c r="E115" s="4">
-        <v>15910</v>
+        <v>16134</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="C116" s="4">
         <v>24</v>
@@ -3018,7 +3018,7 @@
         <v>576</v>
       </c>
       <c r="E116" s="4">
-        <v>2645</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>59481</v>
+        <v>59980</v>
       </c>
       <c r="C117" s="4">
-        <v>3199</v>
+        <v>3209</v>
       </c>
       <c r="D117" s="4">
-        <v>6007</v>
+        <v>6039</v>
       </c>
       <c r="E117" s="4">
-        <v>68687</v>
+        <v>69228</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7535</v>
+        <v>7542</v>
       </c>
       <c r="C118" s="4">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D118" s="4">
-        <v>1971</v>
+        <v>2135</v>
       </c>
       <c r="E118" s="4">
-        <v>9932</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C119" s="4">
         <v>7</v>
       </c>
       <c r="D119" s="4">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E119" s="4">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="C120" s="4">
         <v>99</v>
       </c>
       <c r="D120" s="4">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E120" s="4">
-        <v>1681</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>5907</v>
+        <v>5931</v>
       </c>
       <c r="C121" s="4">
         <v>104</v>
       </c>
       <c r="D121" s="4">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E121" s="4">
-        <v>6746</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>10670</v>
+        <v>10810</v>
       </c>
       <c r="C122" s="4">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="D122" s="4">
-        <v>1884</v>
+        <v>1899</v>
       </c>
       <c r="E122" s="4">
-        <v>14983</v>
+        <v>15141</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="C123" s="4">
         <v>24</v>
       </c>
       <c r="D123" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E123" s="4">
-        <v>1609</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>133132</v>
+        <v>133591</v>
       </c>
       <c r="C124" s="4">
-        <v>11018</v>
+        <v>11050</v>
       </c>
       <c r="D124" s="4">
-        <v>17748</v>
+        <v>18063</v>
       </c>
       <c r="E124" s="4">
-        <v>161898</v>
+        <v>162704</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>10087</v>
+        <v>10095</v>
       </c>
       <c r="C125" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D125" s="4">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E125" s="4">
-        <v>10885</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>38739</v>
+        <v>39048</v>
       </c>
       <c r="C126" s="4">
-        <v>6464</v>
+        <v>6488</v>
       </c>
       <c r="D126" s="4">
-        <v>8714</v>
+        <v>8729</v>
       </c>
       <c r="E126" s="4">
-        <v>53917</v>
+        <v>54265</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>92304</v>
+        <v>92905</v>
       </c>
       <c r="C127" s="4">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="D127" s="4">
-        <v>9007</v>
+        <v>9053</v>
       </c>
       <c r="E127" s="4">
-        <v>107206</v>
+        <v>107861</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>4798</v>
+        <v>4823</v>
       </c>
       <c r="C128" s="4">
         <v>177</v>
       </c>
       <c r="D128" s="4">
-        <v>1898</v>
+        <v>1922</v>
       </c>
       <c r="E128" s="4">
-        <v>6873</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11110</v>
+        <v>11185</v>
       </c>
       <c r="C129" s="4">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D129" s="4">
-        <v>2677</v>
+        <v>2797</v>
       </c>
       <c r="E129" s="4">
-        <v>14134</v>
+        <v>14331</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>80203</v>
+        <v>80494</v>
       </c>
       <c r="C130" s="4">
-        <v>4490</v>
+        <v>4511</v>
       </c>
       <c r="D130" s="4">
-        <v>8905</v>
+        <v>9039</v>
       </c>
       <c r="E130" s="4">
-        <v>93598</v>
+        <v>94044</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>17048</v>
+        <v>17203</v>
       </c>
       <c r="C131" s="4">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="D131" s="4">
-        <v>4427</v>
+        <v>4456</v>
       </c>
       <c r="E131" s="4">
-        <v>22514</v>
+        <v>22706</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C132" s="4">
         <v>32</v>
@@ -3290,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="E132" s="4">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E133" s="4">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>24722</v>
+        <v>24770</v>
       </c>
       <c r="C134" s="4">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D134" s="4">
-        <v>13923</v>
+        <v>13968</v>
       </c>
       <c r="E134" s="4">
-        <v>39165</v>
+        <v>39264</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="C135" s="4">
         <v>34</v>
@@ -3341,7 +3341,7 @@
         <v>249</v>
       </c>
       <c r="E135" s="4">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1663</v>
+        <v>1676</v>
       </c>
       <c r="C137" s="4">
         <v>36</v>
@@ -3375,7 +3375,7 @@
         <v>57</v>
       </c>
       <c r="E137" s="4">
-        <v>1756</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>21605</v>
+        <v>21767</v>
       </c>
       <c r="C138" s="4">
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="D138" s="4">
-        <v>3674</v>
+        <v>3689</v>
       </c>
       <c r="E138" s="4">
-        <v>28854</v>
+        <v>29047</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C139" s="4">
         <v>28</v>
       </c>
       <c r="D139" s="4">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="E139" s="4">
-        <v>2317</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>5953</v>
+        <v>5983</v>
       </c>
       <c r="C140" s="4">
         <v>268</v>
       </c>
       <c r="D140" s="4">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="4">
-        <v>6363</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>17699</v>
+        <v>17826</v>
       </c>
       <c r="C141" s="4">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="D141" s="4">
-        <v>1587</v>
+        <v>1607</v>
       </c>
       <c r="E141" s="4">
-        <v>21190</v>
+        <v>21342</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4860</v>
+        <v>4894</v>
       </c>
       <c r="C142" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D142" s="4">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="E142" s="4">
-        <v>7778</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>12877</v>
+        <v>12917</v>
       </c>
       <c r="C143" s="4">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D143" s="4">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="E143" s="4">
-        <v>15370</v>
+        <v>15414</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9266</v>
+        <v>9340</v>
       </c>
       <c r="C144" s="4">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D144" s="4">
-        <v>1689</v>
+        <v>1713</v>
       </c>
       <c r="E144" s="4">
-        <v>11292</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6510</v>
+        <v>6542</v>
       </c>
       <c r="C145" s="4">
         <v>189</v>
       </c>
       <c r="D145" s="4">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E145" s="4">
-        <v>8367</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7601</v>
+        <v>7650</v>
       </c>
       <c r="C146" s="4">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D146" s="4">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="E146" s="4">
-        <v>8967</v>
+        <v>9027</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>38326</v>
+        <v>38547</v>
       </c>
       <c r="C147" s="4">
-        <v>2592</v>
+        <v>2606</v>
       </c>
       <c r="D147" s="4">
-        <v>3172</v>
+        <v>3197</v>
       </c>
       <c r="E147" s="4">
-        <v>44090</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>23361</v>
+        <v>23711</v>
       </c>
       <c r="C148" s="4">
         <v>532</v>
       </c>
       <c r="D148" s="4">
-        <v>2661</v>
+        <v>2680</v>
       </c>
       <c r="E148" s="4">
-        <v>26554</v>
+        <v>26923</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C149" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D149" s="4">
         <v>64</v>
       </c>
       <c r="E149" s="4">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4020</v>
+        <v>4042</v>
       </c>
       <c r="C150" s="4">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="D150" s="4">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E150" s="4">
-        <v>5217</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>7989</v>
+        <v>8056</v>
       </c>
       <c r="C151" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D151" s="4">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E151" s="4">
-        <v>8844</v>
+        <v>8913</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>165637</v>
+        <v>166460</v>
       </c>
       <c r="C153" s="4">
-        <v>5975</v>
+        <v>5980</v>
       </c>
       <c r="D153" s="4">
-        <v>69626</v>
+        <v>70163</v>
       </c>
       <c r="E153" s="4">
-        <v>241238</v>
+        <v>242603</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2625</v>
+        <v>2632</v>
       </c>
       <c r="C154" s="4">
         <v>78</v>
       </c>
       <c r="D154" s="4">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="E154" s="4">
-        <v>3810</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10217</v>
+        <v>10279</v>
       </c>
       <c r="C155" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D155" s="4">
-        <v>983</v>
+        <v>1040</v>
       </c>
       <c r="E155" s="4">
-        <v>11328</v>
+        <v>11449</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1826</v>
+        <v>1836</v>
       </c>
       <c r="C156" s="4">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="D156" s="4">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E156" s="4">
-        <v>3114</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="C157" s="4">
         <v>113</v>
       </c>
       <c r="D157" s="4">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E157" s="4">
-        <v>1513</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,7 +3723,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="C158" s="4">
         <v>42</v>
@@ -3732,7 +3732,7 @@
         <v>175</v>
       </c>
       <c r="E158" s="4">
-        <v>1940</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>23881</v>
+        <v>24015</v>
       </c>
       <c r="C159" s="4">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D159" s="4">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E159" s="4">
-        <v>25808</v>
+        <v>25951</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>45544</v>
+        <v>46095</v>
       </c>
       <c r="C160" s="4">
         <v>258</v>
       </c>
       <c r="D160" s="4">
-        <v>2493</v>
+        <v>2876</v>
       </c>
       <c r="E160" s="4">
-        <v>48295</v>
+        <v>49229</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="E161" s="4">
-        <v>2858</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>190325</v>
+        <v>190720</v>
       </c>
       <c r="C162" s="4">
-        <v>8977</v>
+        <v>9001</v>
       </c>
       <c r="D162" s="4">
-        <v>34547</v>
+        <v>34617</v>
       </c>
       <c r="E162" s="4">
-        <v>233849</v>
+        <v>234338</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C163" s="4">
         <v>34</v>
@@ -3817,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="E163" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>20920</v>
+        <v>21148</v>
       </c>
       <c r="C164" s="4">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D164" s="4">
-        <v>2661</v>
+        <v>2724</v>
       </c>
       <c r="E164" s="4">
-        <v>24495</v>
+        <v>24788</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="C165" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E165" s="4">
-        <v>2096</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>37273</v>
+        <v>37409</v>
       </c>
       <c r="C166" s="4">
-        <v>4724</v>
+        <v>4763</v>
       </c>
       <c r="D166" s="4">
-        <v>25519</v>
+        <v>25632</v>
       </c>
       <c r="E166" s="4">
-        <v>67516</v>
+        <v>67804</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>12779</v>
+        <v>12866</v>
       </c>
       <c r="C167" s="4">
         <v>763</v>
       </c>
       <c r="D167" s="4">
-        <v>3664</v>
+        <v>3667</v>
       </c>
       <c r="E167" s="4">
-        <v>17206</v>
+        <v>17296</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3517</v>
+        <v>3525</v>
       </c>
       <c r="C168" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D168" s="4">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E168" s="4">
-        <v>4353</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>3700</v>
+        <v>3711</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="E169" s="4">
-        <v>5652</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8551</v>
+        <v>8599</v>
       </c>
       <c r="C170" s="4">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D170" s="4">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="E170" s="4">
-        <v>10947</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>271061</v>
+        <v>272815</v>
       </c>
       <c r="C171" s="4">
-        <v>13827</v>
+        <v>13924</v>
       </c>
       <c r="D171" s="4">
-        <v>19823</v>
+        <v>20072</v>
       </c>
       <c r="E171" s="4">
-        <v>304711</v>
+        <v>306811</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6641</v>
+        <v>6647</v>
       </c>
       <c r="C172" s="4">
         <v>122</v>
       </c>
       <c r="D172" s="4">
-        <v>1208</v>
+        <v>1258</v>
       </c>
       <c r="E172" s="4">
-        <v>7971</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4489</v>
+        <v>4505</v>
       </c>
       <c r="C173" s="4">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D173" s="4">
-        <v>2408</v>
+        <v>2453</v>
       </c>
       <c r="E173" s="4">
-        <v>7490</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C174" s="4">
         <v>6</v>
       </c>
       <c r="D174" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E174" s="4">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>32650</v>
+        <v>32906</v>
       </c>
       <c r="C175" s="4">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D175" s="4">
-        <v>3156</v>
+        <v>3174</v>
       </c>
       <c r="E175" s="4">
-        <v>36775</v>
+        <v>37051</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21454</v>
+        <v>21523</v>
       </c>
       <c r="C176" s="4">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D176" s="4">
-        <v>5790</v>
+        <v>5825</v>
       </c>
       <c r="E176" s="4">
-        <v>28654</v>
+        <v>28760</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2693</v>
+        <v>2724</v>
       </c>
       <c r="C177" s="4">
         <v>725</v>
       </c>
       <c r="D177" s="4">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="E177" s="4">
-        <v>4485</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>5886</v>
+        <v>5930</v>
       </c>
       <c r="C178" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D178" s="4">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="E178" s="4">
-        <v>8163</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>174345</v>
+        <v>175245</v>
       </c>
       <c r="C179" s="4">
-        <v>34563</v>
+        <v>34723</v>
       </c>
       <c r="D179" s="4">
-        <v>26751</v>
+        <v>26873</v>
       </c>
       <c r="E179" s="4">
-        <v>235659</v>
+        <v>236841</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C180" s="4">
         <v>31</v>
       </c>
       <c r="D180" s="4">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E180" s="4">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C181" s="4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D181" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E181" s="4">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>21315</v>
+        <v>21485</v>
       </c>
       <c r="C182" s="4">
-        <v>4835</v>
+        <v>4843</v>
       </c>
       <c r="D182" s="4">
-        <v>5279</v>
+        <v>5379</v>
       </c>
       <c r="E182" s="4">
-        <v>31429</v>
+        <v>31707</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>10848</v>
+        <v>10906</v>
       </c>
       <c r="C183" s="4">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D183" s="4">
-        <v>2832</v>
+        <v>2887</v>
       </c>
       <c r="E183" s="4">
-        <v>14509</v>
+        <v>14623</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7043</v>
+        <v>7079</v>
       </c>
       <c r="C184" s="4">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D184" s="4">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="E184" s="4">
-        <v>9199</v>
+        <v>9245</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>52595</v>
+        <v>52891</v>
       </c>
       <c r="C185" s="4">
-        <v>5376</v>
+        <v>5380</v>
       </c>
       <c r="D185" s="4">
-        <v>10750</v>
+        <v>10853</v>
       </c>
       <c r="E185" s="4">
-        <v>68721</v>
+        <v>69124</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,7 +4199,7 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1621</v>
+        <v>1628</v>
       </c>
       <c r="C186" s="4">
         <v>61</v>
@@ -4208,7 +4208,7 @@
         <v>719</v>
       </c>
       <c r="E186" s="4">
-        <v>2401</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8187</v>
+        <v>8212</v>
       </c>
       <c r="C187" s="4">
         <v>81</v>
       </c>
       <c r="D187" s="4">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E187" s="4">
-        <v>8821</v>
+        <v>8850</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>22260</v>
+        <v>22618</v>
       </c>
       <c r="C188" s="4">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="D188" s="4">
-        <v>2854</v>
+        <v>2866</v>
       </c>
       <c r="E188" s="4">
-        <v>26125</v>
+        <v>26498</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>60593</v>
+        <v>60834</v>
       </c>
       <c r="C189" s="4">
-        <v>2611</v>
+        <v>2624</v>
       </c>
       <c r="D189" s="4">
-        <v>6652</v>
+        <v>6794</v>
       </c>
       <c r="E189" s="4">
-        <v>69856</v>
+        <v>70252</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4273,10 +4273,10 @@
         <v>33</v>
       </c>
       <c r="D190" s="4">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E190" s="4">
-        <v>7253</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2207</v>
+        <v>2225</v>
       </c>
       <c r="C191" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D191" s="4">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E191" s="4">
-        <v>2926</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>38230</v>
+        <v>38343</v>
       </c>
       <c r="C192" s="4">
-        <v>4846</v>
+        <v>4874</v>
       </c>
       <c r="D192" s="4">
-        <v>6596</v>
+        <v>6675</v>
       </c>
       <c r="E192" s="4">
-        <v>49672</v>
+        <v>49892</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C193" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D193" s="4">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E193" s="4">
-        <v>1145</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1530</v>
+        <v>1545</v>
       </c>
       <c r="C194" s="4">
         <v>60</v>
       </c>
       <c r="D194" s="4">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E194" s="4">
-        <v>1943</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4801</v>
+        <v>4806</v>
       </c>
       <c r="C195" s="4">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D195" s="4">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="E195" s="4">
-        <v>6060</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4279</v>
+        <v>4292</v>
       </c>
       <c r="C196" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D196" s="4">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E196" s="4">
-        <v>4562</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3342</v>
+        <v>3346</v>
       </c>
       <c r="C197" s="4">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D197" s="4">
         <v>1525</v>
       </c>
       <c r="E197" s="4">
-        <v>5181</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4409,10 +4409,10 @@
         <v>15</v>
       </c>
       <c r="D198" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E198" s="4">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9256</v>
+        <v>9330</v>
       </c>
       <c r="C199" s="4">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D199" s="4">
-        <v>3986</v>
+        <v>4024</v>
       </c>
       <c r="E199" s="4">
-        <v>13463</v>
+        <v>13577</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>55903</v>
+        <v>56270</v>
       </c>
       <c r="C200" s="4">
-        <v>4465</v>
+        <v>4476</v>
       </c>
       <c r="D200" s="4">
-        <v>3212</v>
+        <v>3228</v>
       </c>
       <c r="E200" s="4">
-        <v>63580</v>
+        <v>63974</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>4923</v>
+        <v>4935</v>
       </c>
       <c r="C201" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D201" s="4">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="E201" s="4">
-        <v>6939</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>14863</v>
+        <v>14885</v>
       </c>
       <c r="C202" s="4">
-        <v>1713</v>
+        <v>1725</v>
       </c>
       <c r="D202" s="4">
-        <v>1331</v>
+        <v>1352</v>
       </c>
       <c r="E202" s="4">
-        <v>17907</v>
+        <v>17962</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4551</v>
+        <v>4565</v>
       </c>
       <c r="C203" s="4">
         <v>350</v>
       </c>
       <c r="D203" s="4">
-        <v>1171</v>
+        <v>1200</v>
       </c>
       <c r="E203" s="4">
-        <v>6072</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4343</v>
+        <v>4355</v>
       </c>
       <c r="C204" s="4">
         <v>55</v>
       </c>
       <c r="D204" s="4">
-        <v>1134</v>
+        <v>1143</v>
       </c>
       <c r="E204" s="4">
-        <v>5532</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>11845</v>
+        <v>11972</v>
       </c>
       <c r="C205" s="4">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D205" s="4">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="E205" s="4">
-        <v>14579</v>
+        <v>14712</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>23046</v>
+        <v>23160</v>
       </c>
       <c r="C206" s="4">
-        <v>6317</v>
+        <v>6340</v>
       </c>
       <c r="D206" s="4">
-        <v>9197</v>
+        <v>9232</v>
       </c>
       <c r="E206" s="4">
-        <v>38560</v>
+        <v>38732</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2169</v>
+        <v>2218</v>
       </c>
       <c r="C207" s="4">
         <v>73</v>
       </c>
       <c r="D207" s="4">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="E207" s="4">
-        <v>3523</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E208" s="4">
-        <v>1080</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15082</v>
+        <v>15141</v>
       </c>
       <c r="C209" s="4">
         <v>141</v>
       </c>
       <c r="D209" s="4">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E209" s="4">
-        <v>15680</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C210" s="4">
         <v>64</v>
       </c>
       <c r="D210" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E210" s="4">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>9748</v>
+        <v>9840</v>
       </c>
       <c r="C211" s="4">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D211" s="4">
-        <v>1789</v>
+        <v>1802</v>
       </c>
       <c r="E211" s="4">
-        <v>11869</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C212" s="4">
         <v>12</v>
       </c>
       <c r="D212" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E212" s="4">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>147874</v>
+        <v>148411</v>
       </c>
       <c r="C213" s="4">
-        <v>8505</v>
+        <v>8512</v>
       </c>
       <c r="D213" s="4">
-        <v>12828</v>
+        <v>12915</v>
       </c>
       <c r="E213" s="4">
-        <v>169207</v>
+        <v>169838</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3493</v>
+        <v>3505</v>
       </c>
       <c r="C214" s="4">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D214" s="4">
-        <v>3311</v>
+        <v>3346</v>
       </c>
       <c r="E214" s="4">
-        <v>7129</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>38369</v>
+        <v>38943</v>
       </c>
       <c r="C215" s="4">
         <v>457</v>
       </c>
       <c r="D215" s="4">
-        <v>2881</v>
+        <v>2889</v>
       </c>
       <c r="E215" s="4">
-        <v>41707</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2008</v>
+        <v>2021</v>
       </c>
       <c r="C216" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="E216" s="4">
-        <v>3351</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E217" s="4">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C218" s="4">
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E218" s="4">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="C219" s="4">
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E219" s="4">
-        <v>1675</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,7 +4777,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>2954</v>
+        <v>2961</v>
       </c>
       <c r="C220" s="4">
         <v>111</v>
@@ -4786,7 +4786,7 @@
         <v>622</v>
       </c>
       <c r="E220" s="4">
-        <v>3687</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1216712</v>
+        <v>1225086</v>
       </c>
       <c r="C221" s="4">
-        <v>80896</v>
+        <v>81051</v>
       </c>
       <c r="D221" s="4">
-        <v>106697</v>
+        <v>107343</v>
       </c>
       <c r="E221" s="4">
-        <v>1404305</v>
+        <v>1413480</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>68944</v>
+        <v>69148</v>
       </c>
       <c r="C222" s="4">
-        <v>2897</v>
+        <v>2909</v>
       </c>
       <c r="D222" s="4">
-        <v>26239</v>
+        <v>26498</v>
       </c>
       <c r="E222" s="4">
-        <v>98080</v>
+        <v>98555</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2675</v>
+        <v>2683</v>
       </c>
       <c r="C224" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D224" s="4">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="E224" s="4">
-        <v>3674</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>19</v>
       </c>
       <c r="D225" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E225" s="4">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>18689</v>
+        <v>18760</v>
       </c>
       <c r="C226" s="4">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D226" s="4">
-        <v>2353</v>
+        <v>2427</v>
       </c>
       <c r="E226" s="4">
-        <v>21982</v>
+        <v>22129</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>62867</v>
+        <v>63258</v>
       </c>
       <c r="C227" s="4">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D227" s="4">
-        <v>30494</v>
+        <v>30652</v>
       </c>
       <c r="E227" s="4">
-        <v>94691</v>
+        <v>95244</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>742887</v>
+        <v>747874</v>
       </c>
       <c r="C228" s="4">
-        <v>30675</v>
+        <v>30701</v>
       </c>
       <c r="D228" s="4">
-        <v>72370</v>
+        <v>72763</v>
       </c>
       <c r="E228" s="4">
-        <v>845932</v>
+        <v>851338</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>7976</v>
+        <v>8051</v>
       </c>
       <c r="C229" s="4">
         <v>200</v>
       </c>
       <c r="D229" s="4">
-        <v>1590</v>
+        <v>1668</v>
       </c>
       <c r="E229" s="4">
-        <v>9766</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7181</v>
+        <v>7219</v>
       </c>
       <c r="C230" s="4">
         <v>812</v>
       </c>
       <c r="D230" s="4">
-        <v>3074</v>
+        <v>3097</v>
       </c>
       <c r="E230" s="4">
-        <v>11067</v>
+        <v>11128</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8430</v>
+        <v>8451</v>
       </c>
       <c r="C231" s="4">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="D231" s="4">
-        <v>2447</v>
+        <v>2466</v>
       </c>
       <c r="E231" s="4">
-        <v>12545</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="C232" s="4">
         <v>63</v>
       </c>
       <c r="D232" s="4">
-        <v>1139</v>
+        <v>1150</v>
       </c>
       <c r="E232" s="4">
-        <v>1904</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>19009</v>
+        <v>19311</v>
       </c>
       <c r="C233" s="4">
         <v>318</v>
       </c>
       <c r="D233" s="4">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="E233" s="4">
-        <v>19988</v>
+        <v>20296</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>34314</v>
+        <v>34589</v>
       </c>
       <c r="C234" s="4">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D234" s="4">
-        <v>4047</v>
+        <v>4221</v>
       </c>
       <c r="E234" s="4">
-        <v>39400</v>
+        <v>39852</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>14634</v>
+        <v>14681</v>
       </c>
       <c r="C235" s="4">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="D235" s="4">
-        <v>3833</v>
+        <v>3849</v>
       </c>
       <c r="E235" s="4">
-        <v>20070</v>
+        <v>20137</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>31617</v>
+        <v>31795</v>
       </c>
       <c r="C236" s="4">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D236" s="4">
-        <v>8250</v>
+        <v>8318</v>
       </c>
       <c r="E236" s="4">
-        <v>41114</v>
+        <v>41363</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>76531</v>
+        <v>77082</v>
       </c>
       <c r="C237" s="4">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D237" s="4">
-        <v>4535</v>
+        <v>4541</v>
       </c>
       <c r="E237" s="4">
-        <v>82061</v>
+        <v>82624</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>23493</v>
+        <v>23808</v>
       </c>
       <c r="C238" s="4">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="D238" s="4">
-        <v>1168</v>
+        <v>1185</v>
       </c>
       <c r="E238" s="4">
-        <v>25288</v>
+        <v>25629</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3858</v>
+        <v>3868</v>
       </c>
       <c r="C239" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D239" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E239" s="4">
-        <v>4195</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>28863</v>
+        <v>29338</v>
       </c>
       <c r="C240" s="4">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D240" s="4">
-        <v>2482</v>
+        <v>2487</v>
       </c>
       <c r="E240" s="4">
-        <v>31816</v>
+        <v>32297</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>276107</v>
+        <v>280839</v>
       </c>
       <c r="C241" s="4">
-        <v>3995</v>
+        <v>4011</v>
       </c>
       <c r="D241" s="4">
-        <v>26870</v>
+        <v>27110</v>
       </c>
       <c r="E241" s="4">
-        <v>306972</v>
+        <v>311960</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>25087</v>
+        <v>25287</v>
       </c>
       <c r="C242" s="4">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D242" s="4">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="E242" s="4">
-        <v>27224</v>
+        <v>27434</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="C243" s="4">
         <v>81</v>
       </c>
       <c r="D243" s="4">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="E243" s="4">
-        <v>3094</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>91655</v>
+        <v>91778</v>
       </c>
       <c r="C244" s="4">
-        <v>1550</v>
+        <v>1560</v>
       </c>
       <c r="D244" s="4">
-        <v>13165</v>
+        <v>13174</v>
       </c>
       <c r="E244" s="4">
-        <v>106370</v>
+        <v>106512</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9695</v>
+        <v>9723</v>
       </c>
       <c r="C245" s="4">
         <v>127</v>
       </c>
       <c r="D245" s="4">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="E245" s="4">
-        <v>12683</v>
+        <v>12712</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>17311</v>
+        <v>17550</v>
       </c>
       <c r="C246" s="4">
         <v>152</v>
       </c>
       <c r="D246" s="4">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E246" s="4">
-        <v>18105</v>
+        <v>18350</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>314100</v>
+        <v>316828</v>
       </c>
       <c r="C247" s="4">
-        <v>12268</v>
+        <v>12292</v>
       </c>
       <c r="D247" s="4">
-        <v>28362</v>
+        <v>28575</v>
       </c>
       <c r="E247" s="4">
-        <v>354730</v>
+        <v>357695</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>23021</v>
+        <v>23433</v>
       </c>
       <c r="C248" s="4">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D248" s="4">
-        <v>4402</v>
+        <v>4472</v>
       </c>
       <c r="E248" s="4">
-        <v>28230</v>
+        <v>28713</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="C249" s="4">
         <v>37</v>
       </c>
       <c r="D249" s="4">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E249" s="4">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>35687</v>
+        <v>35846</v>
       </c>
       <c r="C250" s="4">
-        <v>2818</v>
+        <v>2829</v>
       </c>
       <c r="D250" s="4">
-        <v>3577</v>
+        <v>3627</v>
       </c>
       <c r="E250" s="4">
-        <v>42082</v>
+        <v>42302</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13427</v>
+        <v>13480</v>
       </c>
       <c r="C251" s="4">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D251" s="4">
-        <v>2316</v>
+        <v>2331</v>
       </c>
       <c r="E251" s="4">
-        <v>17424</v>
+        <v>17494</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C252" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D252" s="4">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E252" s="4">
-        <v>2387</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5537</v>
+        <v>5547</v>
       </c>
       <c r="C253" s="4">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D253" s="4">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="E253" s="4">
-        <v>7016</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13303</v>
+        <v>13506</v>
       </c>
       <c r="C254" s="4">
         <v>111</v>
       </c>
       <c r="D254" s="4">
-        <v>1900</v>
+        <v>1904</v>
       </c>
       <c r="E254" s="4">
-        <v>15314</v>
+        <v>15521</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7517</v>
+        <v>7605</v>
       </c>
       <c r="C255" s="4">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D255" s="4">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E255" s="4">
-        <v>7943</v>
+        <v>8039</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>124839</v>
+        <v>125213</v>
       </c>
       <c r="C256" s="4">
-        <v>4409</v>
+        <v>4577</v>
       </c>
       <c r="D256" s="4">
-        <v>2299</v>
+        <v>2407</v>
       </c>
       <c r="E256" s="4">
-        <v>131547</v>
+        <v>132197</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>16949139</v>
+        <v>17073934</v>
       </c>
       <c r="C257" s="4">
-        <v>908175</v>
+        <v>911376</v>
       </c>
       <c r="D257" s="4">
-        <v>1735794</v>
+        <v>1749834</v>
       </c>
       <c r="E257" s="4">
-        <v>19593108</v>
+        <v>19735144</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
